--- a/content/species/data/nba_example_RLI_data_trim_freshwater.xlsx
+++ b/content/species/data/nba_example_RLI_data_trim_freshwater.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nba-species\species\quarto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0E69E6-51CA-4B20-BAD6-993FE4A80947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4FD7D7-5E44-4FD3-B0B0-A36FD02FD6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="1" xr2:uid="{027AC6A8-209D-4E42-8E53-EE844CC37963}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{027AC6A8-209D-4E42-8E53-EE844CC37963}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -69,13 +69,7 @@
     <t>Birds</t>
   </si>
   <si>
-    <t>Dragonflies</t>
-  </si>
-  <si>
     <t>Freshwater Crabs</t>
-  </si>
-  <si>
-    <t>Freshwater Fish</t>
   </si>
   <si>
     <t>Mammals</t>
@@ -91,6 +85,12 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Dragonflies &amp; Damselflies</t>
+  </si>
+  <si>
+    <t>Freshwater Fishes</t>
   </si>
 </sst>
 </file>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED362CF-FE85-44F6-BE1C-A838815FA964}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2006</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>2018</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2007</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>2025</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>2007</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>2017</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2004</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>2016</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>2025</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>1990</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>2018</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>2025</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>1990</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>2018</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>2022</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24">
         <v>1990</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25">
         <v>1991</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1992</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>1993</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>1994</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>1995</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>1996</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31">
         <v>1997</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B32">
         <v>1998</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B33">
         <v>1999</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B34">
         <v>2000</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>2001</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>2002</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <v>2003</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>2004</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B39">
         <v>2005</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>2006</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>2007</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>2008</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>2009</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B44">
         <v>2010</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B45">
         <v>2011</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B46">
         <v>2012</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B47">
         <v>2013</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B48">
         <v>2014</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B49">
         <v>2015</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B50">
         <v>2016</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B51">
         <v>2017</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B52">
         <v>2018</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B53">
         <v>2019</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B54">
         <v>2020</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B55">
         <v>2021</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B56">
         <v>2022</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B57">
         <v>2023</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B58">
         <v>2024</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B59">
         <v>2025</v>
@@ -2141,13 +2141,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB69D90-1B21-4A37-827F-D250DE52680C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/content/species/data/nba_example_RLI_data_trim_freshwater.xlsx
+++ b/content/species/data/nba_example_RLI_data_trim_freshwater.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\species\quarto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_repos\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4FD7D7-5E44-4FD3-B0B0-A36FD02FD6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C91F64-BDF8-41B4-AE02-FDDE4BE1EC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{027AC6A8-209D-4E42-8E53-EE844CC37963}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{027AC6A8-209D-4E42-8E53-EE844CC37963}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -941,17 +941,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED362CF-FE85-44F6-BE1C-A838815FA964}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.578125" customWidth="1"/>
-    <col min="6" max="6" width="16.15625" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -991,7 +991,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1427,11 +1427,8 @@
       <c r="E24">
         <v>0.93727343172926103</v>
       </c>
-      <c r="F24">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1447,11 +1444,8 @@
       <c r="E25">
         <v>0.93664406340922401</v>
       </c>
-      <c r="F25">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1467,11 +1461,8 @@
       <c r="E26">
         <v>0.93575029522793296</v>
       </c>
-      <c r="F26">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1487,11 +1478,8 @@
       <c r="E27">
         <v>0.93458295406505398</v>
       </c>
-      <c r="F27">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1507,11 +1495,8 @@
       <c r="E28">
         <v>0.93392700598696698</v>
       </c>
-      <c r="F28">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1527,11 +1512,8 @@
       <c r="E29">
         <v>0.93250311269473896</v>
       </c>
-      <c r="F29">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1547,11 +1529,8 @@
       <c r="E30">
         <v>0.93135413195000305</v>
       </c>
-      <c r="F30">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1567,11 +1546,8 @@
       <c r="E31">
         <v>0.92957411316181604</v>
       </c>
-      <c r="F31">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1587,11 +1563,8 @@
       <c r="E32">
         <v>0.92882847540876601</v>
       </c>
-      <c r="F32">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1607,11 +1580,8 @@
       <c r="E33">
         <v>0.92770931742965501</v>
       </c>
-      <c r="F33">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1627,11 +1597,8 @@
       <c r="E34">
         <v>0.92653930640349802</v>
       </c>
-      <c r="F34">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1647,11 +1614,8 @@
       <c r="E35">
         <v>0.92563398638986605</v>
       </c>
-      <c r="F35">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1667,11 +1631,8 @@
       <c r="E36">
         <v>0.92469582126258898</v>
       </c>
-      <c r="F36">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1687,11 +1648,8 @@
       <c r="E37">
         <v>0.92327715684661804</v>
       </c>
-      <c r="F37">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -1707,11 +1665,8 @@
       <c r="E38">
         <v>0.92253784406314598</v>
       </c>
-      <c r="F38">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1727,11 +1682,8 @@
       <c r="E39">
         <v>0.92128442995775595</v>
       </c>
-      <c r="F39">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -1747,11 +1699,8 @@
       <c r="E40">
         <v>0.92025582354731394</v>
       </c>
-      <c r="F40">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -1767,11 +1716,8 @@
       <c r="E41">
         <v>0.91923272254150201</v>
       </c>
-      <c r="F41">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1787,11 +1733,8 @@
       <c r="E42">
         <v>0.91873928165881902</v>
       </c>
-      <c r="F42">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -1807,11 +1750,8 @@
       <c r="E43">
         <v>0.91757067687127503</v>
       </c>
-      <c r="F43">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1827,11 +1767,8 @@
       <c r="E44">
         <v>0.91663775788995105</v>
       </c>
-      <c r="F44">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1847,11 +1784,8 @@
       <c r="E45">
         <v>0.91597253245308596</v>
       </c>
-      <c r="F45">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1867,11 +1801,8 @@
       <c r="E46">
         <v>0.91495516441003899</v>
       </c>
-      <c r="F46">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1887,11 +1818,8 @@
       <c r="E47">
         <v>0.91388759849164702</v>
       </c>
-      <c r="F47">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -1907,11 +1835,8 @@
       <c r="E48">
         <v>0.91276150642103904</v>
       </c>
-      <c r="F48">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -1927,11 +1852,8 @@
       <c r="E49">
         <v>0.91185596495792498</v>
       </c>
-      <c r="F49">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -1947,11 +1869,8 @@
       <c r="E50">
         <v>0.91041954909969702</v>
       </c>
-      <c r="F50">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -1967,11 +1886,8 @@
       <c r="E51">
         <v>0.909390069966589</v>
       </c>
-      <c r="F51">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -1987,11 +1903,8 @@
       <c r="E52">
         <v>0.90807428620084496</v>
       </c>
-      <c r="F52">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -2007,11 +1920,8 @@
       <c r="E53">
         <v>0.90690516991126002</v>
       </c>
-      <c r="F53">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -2027,11 +1937,8 @@
       <c r="E54">
         <v>0.90485699068380099</v>
       </c>
-      <c r="F54">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -2047,11 +1954,8 @@
       <c r="E55">
         <v>0.90013861525694105</v>
       </c>
-      <c r="F55">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -2067,11 +1971,8 @@
       <c r="E56">
         <v>0.89610907205387103</v>
       </c>
-      <c r="F56">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -2087,11 +1988,8 @@
       <c r="E57">
         <v>0.89306992780011896</v>
       </c>
-      <c r="F57">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -2107,11 +2005,8 @@
       <c r="E58">
         <v>0.89025129671877701</v>
       </c>
-      <c r="F58">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -2126,9 +2021,6 @@
       </c>
       <c r="E59">
         <v>0.888714940384841</v>
-      </c>
-      <c r="F59">
-        <v>2025</v>
       </c>
     </row>
   </sheetData>
@@ -2143,9 +2035,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2156,15 +2048,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9251B87A2689245AA9FD86C69F20C58" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31801f9a6344885e2ad9c0aa60ac3e97">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de6781d5-cbdf-44cc-b8b1-919d4413b058" xmlns:ns3="d08e37f2-beba-4595-a3e8-aa91f032b3fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="06462e79f34d157ecd2cf5f2e1df8c8f" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2436,6 +2319,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2450,14 +2342,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46C6F7B-4D94-434F-B4A8-F4B534EF89A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F79CD9FB-9076-417F-A692-736A5658190B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2477,6 +2361,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46C6F7B-4D94-434F-B4A8-F4B534EF89A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E37123-21DE-4118-A7E3-15EA5DE94433}">
   <ds:schemaRefs>

--- a/content/species/data/nba_example_RLI_data_trim_freshwater.xlsx
+++ b/content/species/data/nba_example_RLI_data_trim_freshwater.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_repos\species\quarto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C91F64-BDF8-41B4-AE02-FDDE4BE1EC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A78948-CD57-4789-B8DD-D73AE62256D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{027AC6A8-209D-4E42-8E53-EE844CC37963}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{027AC6A8-209D-4E42-8E53-EE844CC37963}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$285</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$282</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
   <si>
     <t>Taxon</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Mammals</t>
-  </si>
-  <si>
-    <t>Plants</t>
   </si>
   <si>
     <t>Reptiles</t>
@@ -939,19 +936,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED362CF-FE85-44F6-BE1C-A838815FA964}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F59"/>
+      <selection activeCell="A18" sqref="A18:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.5234375" customWidth="1"/>
+    <col min="6" max="6" width="16.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -991,7 +988,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1011,7 +1008,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1031,7 +1028,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +1048,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1071,7 +1068,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1091,7 +1088,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1111,9 +1108,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>2006</v>
@@ -1131,9 +1128,9 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>2018</v>
@@ -1151,7 +1148,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1168,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1191,9 +1188,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2007</v>
@@ -1211,9 +1208,9 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>2017</v>
@@ -1231,7 +1228,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1251,7 +1248,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1271,7 +1268,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1291,7 +1288,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1299,19 +1296,19 @@
         <v>1990</v>
       </c>
       <c r="C18">
-        <v>0.95555555555555505</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="D18">
-        <v>0.97037037037036999</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0.97037037037036999</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>1990</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1319,39 +1316,39 @@
         <v>2018</v>
       </c>
       <c r="C19">
-        <v>0.95555555555555605</v>
+        <v>0.89333333333333298</v>
       </c>
       <c r="D19">
-        <v>0.97037037037036999</v>
+        <v>0.92</v>
       </c>
       <c r="E19">
-        <v>0.97037037037036999</v>
+        <v>0.92</v>
       </c>
       <c r="F19">
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C20">
-        <v>0.96296296296296202</v>
+        <v>0.89333333299999995</v>
       </c>
       <c r="D20">
-        <v>0.97037037037036999</v>
+        <v>0.92</v>
       </c>
       <c r="E20">
-        <v>0.97037037037036999</v>
+        <v>0.92000000000000504</v>
       </c>
       <c r="F20">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1359,672 +1356,612 @@
         <v>1990</v>
       </c>
       <c r="C21">
-        <v>0.999999999999999</v>
+        <v>0.82097560980888196</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.91517276418341098</v>
       </c>
       <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.93727343172926103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22">
+        <v>1991</v>
+      </c>
+      <c r="C22">
+        <v>0.82077806457165603</v>
+      </c>
+      <c r="D22">
+        <v>0.91468999078925195</v>
+      </c>
+      <c r="E22">
+        <v>0.93664406340922401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>1992</v>
+      </c>
+      <c r="C23">
+        <v>0.82053033117207597</v>
+      </c>
+      <c r="D23">
+        <v>0.91391147164978304</v>
+      </c>
+      <c r="E23">
+        <v>0.93575029522793296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>1993</v>
+      </c>
+      <c r="C24">
+        <v>0.82030150965442405</v>
+      </c>
+      <c r="D24">
+        <v>0.913262129889575</v>
+      </c>
+      <c r="E24">
+        <v>0.93458295406505398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>1994</v>
+      </c>
+      <c r="C25">
+        <v>0.81998067048824197</v>
+      </c>
+      <c r="D25">
+        <v>0.91222115260715098</v>
+      </c>
+      <c r="E25">
+        <v>0.93392700598696698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>1995</v>
+      </c>
+      <c r="C26">
+        <v>0.819510348693688</v>
+      </c>
+      <c r="D26">
+        <v>0.91134817450378003</v>
+      </c>
+      <c r="E26">
+        <v>0.93250311269473896</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>1996</v>
+      </c>
+      <c r="C27">
+        <v>0.81897106644226703</v>
+      </c>
+      <c r="D27">
+        <v>0.91027686532405905</v>
+      </c>
+      <c r="E27">
+        <v>0.93135413195000305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>1997</v>
+      </c>
+      <c r="C28">
+        <v>0.81913810393283604</v>
+      </c>
+      <c r="D28">
+        <v>0.90947858043150498</v>
+      </c>
+      <c r="E28">
+        <v>0.92957411316181604</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>1998</v>
+      </c>
+      <c r="C29">
+        <v>0.82626034034114304</v>
+      </c>
+      <c r="D29">
+        <v>0.908413943304062</v>
+      </c>
+      <c r="E29">
+        <v>0.92882847540876601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>1999</v>
+      </c>
+      <c r="C30">
+        <v>0.82583395753511202</v>
+      </c>
+      <c r="D30">
+        <v>0.90724315324080695</v>
+      </c>
+      <c r="E30">
+        <v>0.92770931742965501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>2000</v>
+      </c>
+      <c r="C31">
+        <v>0.82565947987445398</v>
+      </c>
+      <c r="D31">
+        <v>0.90658775239341105</v>
+      </c>
+      <c r="E31">
+        <v>0.92653930640349802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>2001</v>
+      </c>
+      <c r="C32">
+        <v>0.826930208575684</v>
+      </c>
+      <c r="D32">
+        <v>0.90569169426818696</v>
+      </c>
+      <c r="E32">
+        <v>0.92563398638986605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>2002</v>
+      </c>
+      <c r="C33">
+        <v>0.83512571678095304</v>
+      </c>
+      <c r="D33">
+        <v>0.90471047794763204</v>
+      </c>
+      <c r="E33">
+        <v>0.92469582126258898</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>2003</v>
+      </c>
+      <c r="C34">
+        <v>0.83269582242597096</v>
+      </c>
+      <c r="D34">
+        <v>0.90381777155648801</v>
+      </c>
+      <c r="E34">
+        <v>0.92327715684661804</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>2004</v>
+      </c>
+      <c r="C35">
+        <v>0.83291363743082103</v>
+      </c>
+      <c r="D35">
+        <v>0.90295730496224602</v>
+      </c>
+      <c r="E35">
+        <v>0.92253784406314598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>2005</v>
+      </c>
+      <c r="C36">
+        <v>0.84052109638045702</v>
+      </c>
+      <c r="D36">
+        <v>0.90197784362320998</v>
+      </c>
+      <c r="E36">
+        <v>0.92128442995775595</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>2006</v>
+      </c>
+      <c r="C37">
+        <v>0.84397902535603397</v>
+      </c>
+      <c r="D37">
+        <v>0.90114608209273706</v>
+      </c>
+      <c r="E37">
+        <v>0.92025582354731394</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>2007</v>
+      </c>
+      <c r="C38">
+        <v>0.84393739791910605</v>
+      </c>
+      <c r="D38">
+        <v>0.90035802291136802</v>
+      </c>
+      <c r="E38">
+        <v>0.91923272254150201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>2008</v>
+      </c>
+      <c r="C39">
+        <v>0.84296403443702705</v>
+      </c>
+      <c r="D39">
+        <v>0.89932776662714597</v>
+      </c>
+      <c r="E39">
+        <v>0.91873928165881902</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>2009</v>
+      </c>
+      <c r="C40">
+        <v>0.85095172795945495</v>
+      </c>
+      <c r="D40">
+        <v>0.89844280570655799</v>
+      </c>
+      <c r="E40">
+        <v>0.91757067687127503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>2010</v>
+      </c>
+      <c r="C41">
+        <v>0.85311272501157698</v>
+      </c>
+      <c r="D41">
+        <v>0.89771464690324898</v>
+      </c>
+      <c r="E41">
+        <v>0.91663775788995105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>2011</v>
+      </c>
+      <c r="C42">
+        <v>0.85418945751090403</v>
+      </c>
+      <c r="D42">
+        <v>0.89673416269810702</v>
+      </c>
+      <c r="E42">
+        <v>0.91597253245308596</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43">
+        <v>2012</v>
+      </c>
+      <c r="C43">
+        <v>0.85661105176701802</v>
+      </c>
+      <c r="D43">
+        <v>0.89564802442452396</v>
+      </c>
+      <c r="E43">
+        <v>0.91495516441003899</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>2013</v>
+      </c>
+      <c r="C44">
+        <v>0.856825731675531</v>
+      </c>
+      <c r="D44">
+        <v>0.89490778091799295</v>
+      </c>
+      <c r="E44">
+        <v>0.91388759849164702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>2014</v>
+      </c>
+      <c r="C45">
+        <v>0.86074699517614695</v>
+      </c>
+      <c r="D45">
+        <v>0.89396860347599305</v>
+      </c>
+      <c r="E45">
+        <v>0.91276150642103904</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>2015</v>
+      </c>
+      <c r="C46">
+        <v>0.86289559285789597</v>
+      </c>
+      <c r="D46">
+        <v>0.89285502345878098</v>
+      </c>
+      <c r="E46">
+        <v>0.91185596495792498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>2016</v>
+      </c>
+      <c r="C47">
+        <v>0.86472524395285699</v>
+      </c>
+      <c r="D47">
+        <v>0.89197475926513103</v>
+      </c>
+      <c r="E47">
+        <v>0.91041954909969702</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>2017</v>
+      </c>
+      <c r="C48">
+        <v>0.86613670300557399</v>
+      </c>
+      <c r="D48">
+        <v>0.89085237401564998</v>
+      </c>
+      <c r="E48">
+        <v>0.909390069966589</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>0.89333333333333298</v>
-      </c>
-      <c r="D22">
-        <v>0.92</v>
-      </c>
-      <c r="E22">
-        <v>0.92</v>
-      </c>
-      <c r="F22">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23">
+      <c r="C49">
+        <v>0.86653018584874897</v>
+      </c>
+      <c r="D49">
+        <v>0.88987786552458004</v>
+      </c>
+      <c r="E49">
+        <v>0.90807428620084496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>2019</v>
+      </c>
+      <c r="C50">
+        <v>0.87062029868544599</v>
+      </c>
+      <c r="D50">
+        <v>0.88885336195171705</v>
+      </c>
+      <c r="E50">
+        <v>0.90690516991126002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>2020</v>
+      </c>
+      <c r="C51">
+        <v>0.87104137496586798</v>
+      </c>
+      <c r="D51">
+        <v>0.88794356747677305</v>
+      </c>
+      <c r="E51">
+        <v>0.90485699068380099</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>2021</v>
+      </c>
+      <c r="C52">
+        <v>0.87564888769153104</v>
+      </c>
+      <c r="D52">
+        <v>0.88721654515250103</v>
+      </c>
+      <c r="E52">
+        <v>0.90013861525694105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53">
         <v>2022</v>
       </c>
-      <c r="C23">
-        <v>0.89333333299999995</v>
-      </c>
-      <c r="D23">
-        <v>0.92</v>
-      </c>
-      <c r="E23">
-        <v>0.92000000000000504</v>
-      </c>
-      <c r="F23">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24">
-        <v>1990</v>
-      </c>
-      <c r="C24">
-        <v>0.82097560980888196</v>
-      </c>
-      <c r="D24">
-        <v>0.91517276418341098</v>
-      </c>
-      <c r="E24">
-        <v>0.93727343172926103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25">
-        <v>1991</v>
-      </c>
-      <c r="C25">
-        <v>0.82077806457165603</v>
-      </c>
-      <c r="D25">
-        <v>0.91468999078925195</v>
-      </c>
-      <c r="E25">
-        <v>0.93664406340922401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26">
-        <v>1992</v>
-      </c>
-      <c r="C26">
-        <v>0.82053033117207597</v>
-      </c>
-      <c r="D26">
-        <v>0.91391147164978304</v>
-      </c>
-      <c r="E26">
-        <v>0.93575029522793296</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27">
-        <v>1993</v>
-      </c>
-      <c r="C27">
-        <v>0.82030150965442405</v>
-      </c>
-      <c r="D27">
-        <v>0.913262129889575</v>
-      </c>
-      <c r="E27">
-        <v>0.93458295406505398</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28">
-        <v>1994</v>
-      </c>
-      <c r="C28">
-        <v>0.81998067048824197</v>
-      </c>
-      <c r="D28">
-        <v>0.91222115260715098</v>
-      </c>
-      <c r="E28">
-        <v>0.93392700598696698</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29">
-        <v>1995</v>
-      </c>
-      <c r="C29">
-        <v>0.819510348693688</v>
-      </c>
-      <c r="D29">
-        <v>0.91134817450378003</v>
-      </c>
-      <c r="E29">
-        <v>0.93250311269473896</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30">
-        <v>1996</v>
-      </c>
-      <c r="C30">
-        <v>0.81897106644226703</v>
-      </c>
-      <c r="D30">
-        <v>0.91027686532405905</v>
-      </c>
-      <c r="E30">
-        <v>0.93135413195000305</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31">
-        <v>1997</v>
-      </c>
-      <c r="C31">
-        <v>0.81913810393283604</v>
-      </c>
-      <c r="D31">
-        <v>0.90947858043150498</v>
-      </c>
-      <c r="E31">
-        <v>0.92957411316181604</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32">
-        <v>1998</v>
-      </c>
-      <c r="C32">
-        <v>0.82626034034114304</v>
-      </c>
-      <c r="D32">
-        <v>0.908413943304062</v>
-      </c>
-      <c r="E32">
-        <v>0.92882847540876601</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33">
-        <v>1999</v>
-      </c>
-      <c r="C33">
-        <v>0.82583395753511202</v>
-      </c>
-      <c r="D33">
-        <v>0.90724315324080695</v>
-      </c>
-      <c r="E33">
-        <v>0.92770931742965501</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34">
-        <v>2000</v>
-      </c>
-      <c r="C34">
-        <v>0.82565947987445398</v>
-      </c>
-      <c r="D34">
-        <v>0.90658775239341105</v>
-      </c>
-      <c r="E34">
-        <v>0.92653930640349802</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35">
-        <v>2001</v>
-      </c>
-      <c r="C35">
-        <v>0.826930208575684</v>
-      </c>
-      <c r="D35">
-        <v>0.90569169426818696</v>
-      </c>
-      <c r="E35">
-        <v>0.92563398638986605</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36">
-        <v>2002</v>
-      </c>
-      <c r="C36">
-        <v>0.83512571678095304</v>
-      </c>
-      <c r="D36">
-        <v>0.90471047794763204</v>
-      </c>
-      <c r="E36">
-        <v>0.92469582126258898</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37">
-        <v>2003</v>
-      </c>
-      <c r="C37">
-        <v>0.83269582242597096</v>
-      </c>
-      <c r="D37">
-        <v>0.90381777155648801</v>
-      </c>
-      <c r="E37">
-        <v>0.92327715684661804</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38">
-        <v>2004</v>
-      </c>
-      <c r="C38">
-        <v>0.83291363743082103</v>
-      </c>
-      <c r="D38">
-        <v>0.90295730496224602</v>
-      </c>
-      <c r="E38">
-        <v>0.92253784406314598</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39">
-        <v>2005</v>
-      </c>
-      <c r="C39">
-        <v>0.84052109638045702</v>
-      </c>
-      <c r="D39">
-        <v>0.90197784362320998</v>
-      </c>
-      <c r="E39">
-        <v>0.92128442995775595</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40">
-        <v>2006</v>
-      </c>
-      <c r="C40">
-        <v>0.84397902535603397</v>
-      </c>
-      <c r="D40">
-        <v>0.90114608209273706</v>
-      </c>
-      <c r="E40">
-        <v>0.92025582354731394</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41">
-        <v>2007</v>
-      </c>
-      <c r="C41">
-        <v>0.84393739791910605</v>
-      </c>
-      <c r="D41">
-        <v>0.90035802291136802</v>
-      </c>
-      <c r="E41">
-        <v>0.91923272254150201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42">
-        <v>2008</v>
-      </c>
-      <c r="C42">
-        <v>0.84296403443702705</v>
-      </c>
-      <c r="D42">
-        <v>0.89932776662714597</v>
-      </c>
-      <c r="E42">
-        <v>0.91873928165881902</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43">
-        <v>2009</v>
-      </c>
-      <c r="C43">
-        <v>0.85095172795945495</v>
-      </c>
-      <c r="D43">
-        <v>0.89844280570655799</v>
-      </c>
-      <c r="E43">
-        <v>0.91757067687127503</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44">
-        <v>2010</v>
-      </c>
-      <c r="C44">
-        <v>0.85311272501157698</v>
-      </c>
-      <c r="D44">
-        <v>0.89771464690324898</v>
-      </c>
-      <c r="E44">
-        <v>0.91663775788995105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45">
-        <v>2011</v>
-      </c>
-      <c r="C45">
-        <v>0.85418945751090403</v>
-      </c>
-      <c r="D45">
-        <v>0.89673416269810702</v>
-      </c>
-      <c r="E45">
-        <v>0.91597253245308596</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46">
-        <v>2012</v>
-      </c>
-      <c r="C46">
-        <v>0.85661105176701802</v>
-      </c>
-      <c r="D46">
-        <v>0.89564802442452396</v>
-      </c>
-      <c r="E46">
-        <v>0.91495516441003899</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47">
-        <v>2013</v>
-      </c>
-      <c r="C47">
-        <v>0.856825731675531</v>
-      </c>
-      <c r="D47">
-        <v>0.89490778091799295</v>
-      </c>
-      <c r="E47">
-        <v>0.91388759849164702</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48">
-        <v>2014</v>
-      </c>
-      <c r="C48">
-        <v>0.86074699517614695</v>
-      </c>
-      <c r="D48">
-        <v>0.89396860347599305</v>
-      </c>
-      <c r="E48">
-        <v>0.91276150642103904</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49">
-        <v>2015</v>
-      </c>
-      <c r="C49">
-        <v>0.86289559285789597</v>
-      </c>
-      <c r="D49">
-        <v>0.89285502345878098</v>
-      </c>
-      <c r="E49">
-        <v>0.91185596495792498</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50">
-        <v>2016</v>
-      </c>
-      <c r="C50">
-        <v>0.86472524395285699</v>
-      </c>
-      <c r="D50">
-        <v>0.89197475926513103</v>
-      </c>
-      <c r="E50">
-        <v>0.91041954909969702</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51">
-        <v>2017</v>
-      </c>
-      <c r="C51">
-        <v>0.86613670300557399</v>
-      </c>
-      <c r="D51">
-        <v>0.89085237401564998</v>
-      </c>
-      <c r="E51">
-        <v>0.909390069966589</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52">
-        <v>2018</v>
-      </c>
-      <c r="C52">
-        <v>0.86653018584874897</v>
-      </c>
-      <c r="D52">
-        <v>0.88987786552458004</v>
-      </c>
-      <c r="E52">
-        <v>0.90807428620084496</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53">
-        <v>2019</v>
-      </c>
       <c r="C53">
-        <v>0.87062029868544599</v>
+        <v>0.87484237559831401</v>
       </c>
       <c r="D53">
-        <v>0.88885336195171705</v>
+        <v>0.88647933465505802</v>
       </c>
       <c r="E53">
-        <v>0.90690516991126002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.89610907205387103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C54">
-        <v>0.87104137496586798</v>
+        <v>0.87777279313628898</v>
       </c>
       <c r="D54">
-        <v>0.88794356747677305</v>
+        <v>0.88556144242029</v>
       </c>
       <c r="E54">
-        <v>0.90485699068380099</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.89306992780011896</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C55">
-        <v>0.87564888769153104</v>
+        <v>0.876880149043062</v>
       </c>
       <c r="D55">
-        <v>0.88721654515250103</v>
+        <v>0.885149689035993</v>
       </c>
       <c r="E55">
-        <v>0.90013861525694105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.89025129671877701</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="C56">
-        <v>0.87484237559831401</v>
+        <v>0.87764718577882195</v>
       </c>
       <c r="D56">
-        <v>0.88647933465505802</v>
+        <v>0.884748827413254</v>
       </c>
       <c r="E56">
-        <v>0.89610907205387103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57">
-        <v>2023</v>
-      </c>
-      <c r="C57">
-        <v>0.87777279313628898</v>
-      </c>
-      <c r="D57">
-        <v>0.88556144242029</v>
-      </c>
-      <c r="E57">
-        <v>0.89306992780011896</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58">
-        <v>2024</v>
-      </c>
-      <c r="C58">
-        <v>0.876880149043062</v>
-      </c>
-      <c r="D58">
-        <v>0.885149689035993</v>
-      </c>
-      <c r="E58">
-        <v>0.89025129671877701</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59">
-        <v>2025</v>
-      </c>
-      <c r="C59">
-        <v>0.87764718577882195</v>
-      </c>
-      <c r="D59">
-        <v>0.884748827413254</v>
-      </c>
-      <c r="E59">
         <v>0.888714940384841</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F285" xr:uid="{DED362CF-FE85-44F6-BE1C-A838815FA964}"/>
+  <autoFilter ref="A1:F282" xr:uid="{DED362CF-FE85-44F6-BE1C-A838815FA964}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2035,11 +1972,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2048,6 +1985,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9251B87A2689245AA9FD86C69F20C58" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31801f9a6344885e2ad9c0aa60ac3e97">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de6781d5-cbdf-44cc-b8b1-919d4413b058" xmlns:ns3="d08e37f2-beba-4595-a3e8-aa91f032b3fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="06462e79f34d157ecd2cf5f2e1df8c8f" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2319,15 +2265,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2342,6 +2279,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46C6F7B-4D94-434F-B4A8-F4B534EF89A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F79CD9FB-9076-417F-A692-736A5658190B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2361,14 +2306,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46C6F7B-4D94-434F-B4A8-F4B534EF89A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E37123-21DE-4118-A7E3-15EA5DE94433}">
   <ds:schemaRefs>

--- a/content/species/data/nba_example_RLI_data_trim_freshwater.xlsx
+++ b/content/species/data/nba_example_RLI_data_trim_freshwater.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nba-species\species\quarto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0E69E6-51CA-4B20-BAD6-993FE4A80947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A78948-CD57-4789-B8DD-D73AE62256D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="1" xr2:uid="{027AC6A8-209D-4E42-8E53-EE844CC37963}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{027AC6A8-209D-4E42-8E53-EE844CC37963}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$285</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$282</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
   <si>
     <t>Taxon</t>
   </si>
@@ -69,19 +69,10 @@
     <t>Birds</t>
   </si>
   <si>
-    <t>Dragonflies</t>
-  </si>
-  <si>
     <t>Freshwater Crabs</t>
   </si>
   <si>
-    <t>Freshwater Fish</t>
-  </si>
-  <si>
     <t>Mammals</t>
-  </si>
-  <si>
-    <t>Plants</t>
   </si>
   <si>
     <t>Reptiles</t>
@@ -91,6 +82,12 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Dragonflies &amp; Damselflies</t>
+  </si>
+  <si>
+    <t>Freshwater Fishes</t>
   </si>
 </sst>
 </file>
@@ -939,16 +936,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED362CF-FE85-44F6-BE1C-A838815FA964}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.578125" customWidth="1"/>
-    <col min="6" max="6" width="16.15625" customWidth="1"/>
+    <col min="1" max="1" width="30.5234375" customWidth="1"/>
+    <col min="6" max="6" width="16.1015625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1113,7 +1110,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>2006</v>
@@ -1133,7 +1130,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>2018</v>
@@ -1153,7 +1150,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2007</v>
@@ -1173,7 +1170,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>2025</v>
@@ -1193,7 +1190,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2007</v>
@@ -1213,7 +1210,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>2017</v>
@@ -1233,7 +1230,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2004</v>
@@ -1253,7 +1250,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>2016</v>
@@ -1273,7 +1270,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>2025</v>
@@ -1293,19 +1290,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>1990</v>
       </c>
       <c r="C18">
-        <v>0.95555555555555505</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="D18">
-        <v>0.97037037037036999</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0.97037037037036999</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>1990</v>
@@ -1313,19 +1310,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>2018</v>
       </c>
       <c r="C19">
-        <v>0.95555555555555605</v>
+        <v>0.89333333333333298</v>
       </c>
       <c r="D19">
-        <v>0.97037037037036999</v>
+        <v>0.92</v>
       </c>
       <c r="E19">
-        <v>0.97037037037036999</v>
+        <v>0.92</v>
       </c>
       <c r="F19">
         <v>2018</v>
@@ -1333,806 +1330,638 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C20">
-        <v>0.96296296296296202</v>
+        <v>0.89333333299999995</v>
       </c>
       <c r="D20">
-        <v>0.97037037037036999</v>
+        <v>0.92</v>
       </c>
       <c r="E20">
-        <v>0.97037037037036999</v>
+        <v>0.92000000000000504</v>
       </c>
       <c r="F20">
-        <v>2025</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>1990</v>
       </c>
       <c r="C21">
-        <v>0.999999999999999</v>
+        <v>0.82097560980888196</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.91517276418341098</v>
       </c>
       <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1990</v>
+        <v>0.93727343172926103</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>2018</v>
+        <v>1991</v>
       </c>
       <c r="C22">
-        <v>0.89333333333333298</v>
+        <v>0.82077806457165603</v>
       </c>
       <c r="D22">
-        <v>0.92</v>
+        <v>0.91468999078925195</v>
       </c>
       <c r="E22">
-        <v>0.92</v>
-      </c>
-      <c r="F22">
-        <v>2018</v>
+        <v>0.93664406340922401</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>2022</v>
+        <v>1992</v>
       </c>
       <c r="C23">
-        <v>0.89333333299999995</v>
+        <v>0.82053033117207597</v>
       </c>
       <c r="D23">
-        <v>0.92</v>
+        <v>0.91391147164978304</v>
       </c>
       <c r="E23">
-        <v>0.92000000000000504</v>
-      </c>
-      <c r="F23">
-        <v>2022</v>
+        <v>0.93575029522793296</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="C24">
-        <v>0.82097560980888196</v>
+        <v>0.82030150965442405</v>
       </c>
       <c r="D24">
-        <v>0.91517276418341098</v>
+        <v>0.913262129889575</v>
       </c>
       <c r="E24">
-        <v>0.93727343172926103</v>
-      </c>
-      <c r="F24">
-        <v>1990</v>
+        <v>0.93458295406505398</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="C25">
-        <v>0.82077806457165603</v>
+        <v>0.81998067048824197</v>
       </c>
       <c r="D25">
-        <v>0.91468999078925195</v>
+        <v>0.91222115260715098</v>
       </c>
       <c r="E25">
-        <v>0.93664406340922401</v>
-      </c>
-      <c r="F25">
-        <v>1991</v>
+        <v>0.93392700598696698</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="C26">
-        <v>0.82053033117207597</v>
+        <v>0.819510348693688</v>
       </c>
       <c r="D26">
-        <v>0.91391147164978304</v>
+        <v>0.91134817450378003</v>
       </c>
       <c r="E26">
-        <v>0.93575029522793296</v>
-      </c>
-      <c r="F26">
-        <v>1992</v>
+        <v>0.93250311269473896</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B27">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="C27">
-        <v>0.82030150965442405</v>
+        <v>0.81897106644226703</v>
       </c>
       <c r="D27">
-        <v>0.913262129889575</v>
+        <v>0.91027686532405905</v>
       </c>
       <c r="E27">
-        <v>0.93458295406505398</v>
-      </c>
-      <c r="F27">
-        <v>1993</v>
+        <v>0.93135413195000305</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="C28">
-        <v>0.81998067048824197</v>
+        <v>0.81913810393283604</v>
       </c>
       <c r="D28">
-        <v>0.91222115260715098</v>
+        <v>0.90947858043150498</v>
       </c>
       <c r="E28">
-        <v>0.93392700598696698</v>
-      </c>
-      <c r="F28">
-        <v>1994</v>
+        <v>0.92957411316181604</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B29">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="C29">
-        <v>0.819510348693688</v>
+        <v>0.82626034034114304</v>
       </c>
       <c r="D29">
-        <v>0.91134817450378003</v>
+        <v>0.908413943304062</v>
       </c>
       <c r="E29">
-        <v>0.93250311269473896</v>
-      </c>
-      <c r="F29">
-        <v>1995</v>
+        <v>0.92882847540876601</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="C30">
-        <v>0.81897106644226703</v>
+        <v>0.82583395753511202</v>
       </c>
       <c r="D30">
-        <v>0.91027686532405905</v>
+        <v>0.90724315324080695</v>
       </c>
       <c r="E30">
-        <v>0.93135413195000305</v>
-      </c>
-      <c r="F30">
-        <v>1996</v>
+        <v>0.92770931742965501</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="C31">
-        <v>0.81913810393283604</v>
+        <v>0.82565947987445398</v>
       </c>
       <c r="D31">
-        <v>0.90947858043150498</v>
+        <v>0.90658775239341105</v>
       </c>
       <c r="E31">
-        <v>0.92957411316181604</v>
-      </c>
-      <c r="F31">
-        <v>1997</v>
+        <v>0.92653930640349802</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B32">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="C32">
-        <v>0.82626034034114304</v>
+        <v>0.826930208575684</v>
       </c>
       <c r="D32">
-        <v>0.908413943304062</v>
+        <v>0.90569169426818696</v>
       </c>
       <c r="E32">
-        <v>0.92882847540876601</v>
-      </c>
-      <c r="F32">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.92563398638986605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B33">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="C33">
-        <v>0.82583395753511202</v>
+        <v>0.83512571678095304</v>
       </c>
       <c r="D33">
-        <v>0.90724315324080695</v>
+        <v>0.90471047794763204</v>
       </c>
       <c r="E33">
-        <v>0.92770931742965501</v>
-      </c>
-      <c r="F33">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.92469582126258898</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="C34">
-        <v>0.82565947987445398</v>
+        <v>0.83269582242597096</v>
       </c>
       <c r="D34">
-        <v>0.90658775239341105</v>
+        <v>0.90381777155648801</v>
       </c>
       <c r="E34">
-        <v>0.92653930640349802</v>
-      </c>
-      <c r="F34">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.92327715684661804</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B35">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="C35">
-        <v>0.826930208575684</v>
+        <v>0.83291363743082103</v>
       </c>
       <c r="D35">
-        <v>0.90569169426818696</v>
+        <v>0.90295730496224602</v>
       </c>
       <c r="E35">
-        <v>0.92563398638986605</v>
-      </c>
-      <c r="F35">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.92253784406314598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B36">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="C36">
-        <v>0.83512571678095304</v>
+        <v>0.84052109638045702</v>
       </c>
       <c r="D36">
-        <v>0.90471047794763204</v>
+        <v>0.90197784362320998</v>
       </c>
       <c r="E36">
-        <v>0.92469582126258898</v>
-      </c>
-      <c r="F36">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.92128442995775595</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B37">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="C37">
-        <v>0.83269582242597096</v>
+        <v>0.84397902535603397</v>
       </c>
       <c r="D37">
-        <v>0.90381777155648801</v>
+        <v>0.90114608209273706</v>
       </c>
       <c r="E37">
-        <v>0.92327715684661804</v>
-      </c>
-      <c r="F37">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.92025582354731394</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B38">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="C38">
-        <v>0.83291363743082103</v>
+        <v>0.84393739791910605</v>
       </c>
       <c r="D38">
-        <v>0.90295730496224602</v>
+        <v>0.90035802291136802</v>
       </c>
       <c r="E38">
-        <v>0.92253784406314598</v>
-      </c>
-      <c r="F38">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.91923272254150201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B39">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="C39">
-        <v>0.84052109638045702</v>
+        <v>0.84296403443702705</v>
       </c>
       <c r="D39">
-        <v>0.90197784362320998</v>
+        <v>0.89932776662714597</v>
       </c>
       <c r="E39">
-        <v>0.92128442995775595</v>
-      </c>
-      <c r="F39">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.91873928165881902</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B40">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="C40">
-        <v>0.84397902535603397</v>
+        <v>0.85095172795945495</v>
       </c>
       <c r="D40">
-        <v>0.90114608209273706</v>
+        <v>0.89844280570655799</v>
       </c>
       <c r="E40">
-        <v>0.92025582354731394</v>
-      </c>
-      <c r="F40">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.91757067687127503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B41">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C41">
-        <v>0.84393739791910605</v>
+        <v>0.85311272501157698</v>
       </c>
       <c r="D41">
-        <v>0.90035802291136802</v>
+        <v>0.89771464690324898</v>
       </c>
       <c r="E41">
-        <v>0.91923272254150201</v>
-      </c>
-      <c r="F41">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.91663775788995105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B42">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C42">
-        <v>0.84296403443702705</v>
+        <v>0.85418945751090403</v>
       </c>
       <c r="D42">
-        <v>0.89932776662714597</v>
+        <v>0.89673416269810702</v>
       </c>
       <c r="E42">
-        <v>0.91873928165881902</v>
-      </c>
-      <c r="F42">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.91597253245308596</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B43">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C43">
-        <v>0.85095172795945495</v>
+        <v>0.85661105176701802</v>
       </c>
       <c r="D43">
-        <v>0.89844280570655799</v>
+        <v>0.89564802442452396</v>
       </c>
       <c r="E43">
-        <v>0.91757067687127503</v>
-      </c>
-      <c r="F43">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.91495516441003899</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B44">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C44">
-        <v>0.85311272501157698</v>
+        <v>0.856825731675531</v>
       </c>
       <c r="D44">
-        <v>0.89771464690324898</v>
+        <v>0.89490778091799295</v>
       </c>
       <c r="E44">
-        <v>0.91663775788995105</v>
-      </c>
-      <c r="F44">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.91388759849164702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B45">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C45">
-        <v>0.85418945751090403</v>
+        <v>0.86074699517614695</v>
       </c>
       <c r="D45">
-        <v>0.89673416269810702</v>
+        <v>0.89396860347599305</v>
       </c>
       <c r="E45">
-        <v>0.91597253245308596</v>
-      </c>
-      <c r="F45">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.91276150642103904</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B46">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C46">
-        <v>0.85661105176701802</v>
+        <v>0.86289559285789597</v>
       </c>
       <c r="D46">
-        <v>0.89564802442452396</v>
+        <v>0.89285502345878098</v>
       </c>
       <c r="E46">
-        <v>0.91495516441003899</v>
-      </c>
-      <c r="F46">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.91185596495792498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B47">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C47">
-        <v>0.856825731675531</v>
+        <v>0.86472524395285699</v>
       </c>
       <c r="D47">
-        <v>0.89490778091799295</v>
+        <v>0.89197475926513103</v>
       </c>
       <c r="E47">
-        <v>0.91388759849164702</v>
-      </c>
-      <c r="F47">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.91041954909969702</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B48">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C48">
-        <v>0.86074699517614695</v>
+        <v>0.86613670300557399</v>
       </c>
       <c r="D48">
-        <v>0.89396860347599305</v>
+        <v>0.89085237401564998</v>
       </c>
       <c r="E48">
-        <v>0.91276150642103904</v>
-      </c>
-      <c r="F48">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.909390069966589</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B49">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C49">
-        <v>0.86289559285789597</v>
+        <v>0.86653018584874897</v>
       </c>
       <c r="D49">
-        <v>0.89285502345878098</v>
+        <v>0.88987786552458004</v>
       </c>
       <c r="E49">
-        <v>0.91185596495792498</v>
-      </c>
-      <c r="F49">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.90807428620084496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B50">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C50">
-        <v>0.86472524395285699</v>
+        <v>0.87062029868544599</v>
       </c>
       <c r="D50">
-        <v>0.89197475926513103</v>
+        <v>0.88885336195171705</v>
       </c>
       <c r="E50">
-        <v>0.91041954909969702</v>
-      </c>
-      <c r="F50">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.90690516991126002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B51">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C51">
-        <v>0.86613670300557399</v>
+        <v>0.87104137496586798</v>
       </c>
       <c r="D51">
-        <v>0.89085237401564998</v>
+        <v>0.88794356747677305</v>
       </c>
       <c r="E51">
-        <v>0.909390069966589</v>
-      </c>
-      <c r="F51">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.90485699068380099</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B52">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C52">
-        <v>0.86653018584874897</v>
+        <v>0.87564888769153104</v>
       </c>
       <c r="D52">
-        <v>0.88987786552458004</v>
+        <v>0.88721654515250103</v>
       </c>
       <c r="E52">
-        <v>0.90807428620084496</v>
-      </c>
-      <c r="F52">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.90013861525694105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B53">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C53">
-        <v>0.87062029868544599</v>
+        <v>0.87484237559831401</v>
       </c>
       <c r="D53">
-        <v>0.88885336195171705</v>
+        <v>0.88647933465505802</v>
       </c>
       <c r="E53">
-        <v>0.90690516991126002</v>
-      </c>
-      <c r="F53">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.89610907205387103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B54">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C54">
-        <v>0.87104137496586798</v>
+        <v>0.87777279313628898</v>
       </c>
       <c r="D54">
-        <v>0.88794356747677305</v>
+        <v>0.88556144242029</v>
       </c>
       <c r="E54">
-        <v>0.90485699068380099</v>
-      </c>
-      <c r="F54">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.89306992780011896</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B55">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C55">
-        <v>0.87564888769153104</v>
+        <v>0.876880149043062</v>
       </c>
       <c r="D55">
-        <v>0.88721654515250103</v>
+        <v>0.885149689035993</v>
       </c>
       <c r="E55">
-        <v>0.90013861525694105</v>
-      </c>
-      <c r="F55">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.89025129671877701</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B56">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="C56">
-        <v>0.87484237559831401</v>
+        <v>0.87764718577882195</v>
       </c>
       <c r="D56">
-        <v>0.88647933465505802</v>
+        <v>0.884748827413254</v>
       </c>
       <c r="E56">
-        <v>0.89610907205387103</v>
-      </c>
-      <c r="F56">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57">
-        <v>2023</v>
-      </c>
-      <c r="C57">
-        <v>0.87777279313628898</v>
-      </c>
-      <c r="D57">
-        <v>0.88556144242029</v>
-      </c>
-      <c r="E57">
-        <v>0.89306992780011896</v>
-      </c>
-      <c r="F57">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58">
-        <v>2024</v>
-      </c>
-      <c r="C58">
-        <v>0.876880149043062</v>
-      </c>
-      <c r="D58">
-        <v>0.885149689035993</v>
-      </c>
-      <c r="E58">
-        <v>0.89025129671877701</v>
-      </c>
-      <c r="F58">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59">
-        <v>2025</v>
-      </c>
-      <c r="C59">
-        <v>0.87764718577882195</v>
-      </c>
-      <c r="D59">
-        <v>0.884748827413254</v>
-      </c>
-      <c r="E59">
         <v>0.888714940384841</v>
       </c>
-      <c r="F59">
-        <v>2025</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F285" xr:uid="{DED362CF-FE85-44F6-BE1C-A838815FA964}"/>
+  <autoFilter ref="A1:F282" xr:uid="{DED362CF-FE85-44F6-BE1C-A838815FA964}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2141,13 +1970,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB69D90-1B21-4A37-827F-D250DE52680C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/content/species/data/nba_example_RLI_data_trim_freshwater.xlsx
+++ b/content/species/data/nba_example_RLI_data_trim_freshwater.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\species\quarto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_repos\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A78948-CD57-4789-B8DD-D73AE62256D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D176788-883D-46A5-8D9A-EEBA42D290A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{027AC6A8-209D-4E42-8E53-EE844CC37963}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="13824" windowHeight="9864" xr2:uid="{027AC6A8-209D-4E42-8E53-EE844CC37963}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>Birds</t>
   </si>
   <si>
-    <t>Freshwater Crabs</t>
-  </si>
-  <si>
     <t>Mammals</t>
   </si>
   <si>
@@ -84,10 +81,13 @@
     <t>test</t>
   </si>
   <si>
-    <t>Dragonflies &amp; Damselflies</t>
+    <t>Freshwater fishes</t>
   </si>
   <si>
-    <t>Freshwater Fishes</t>
+    <t>Freshwater crabs</t>
+  </si>
+  <si>
+    <t>Dragonflies &amp; damselflies</t>
   </si>
 </sst>
 </file>
@@ -938,17 +938,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED362CF-FE85-44F6-BE1C-A838815FA964}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5234375" customWidth="1"/>
-    <col min="6" max="6" width="16.1015625" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -988,7 +988,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1108,9 +1108,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2006</v>
@@ -1128,9 +1128,9 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>2018</v>
@@ -1148,9 +1148,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>2007</v>
@@ -1168,9 +1168,9 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>2025</v>
@@ -1188,9 +1188,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>2007</v>
@@ -1208,9 +1208,9 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2017</v>
@@ -1228,9 +1228,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>2004</v>
@@ -1248,9 +1248,9 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>2016</v>
@@ -1268,9 +1268,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>2025</v>
@@ -1288,9 +1288,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>1990</v>
@@ -1308,9 +1308,9 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>2018</v>
@@ -1328,9 +1328,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>2022</v>
@@ -1348,9 +1348,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>1990</v>
@@ -1365,9 +1365,9 @@
         <v>0.93727343172926103</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>1991</v>
@@ -1382,9 +1382,9 @@
         <v>0.93664406340922401</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>1992</v>
@@ -1399,9 +1399,9 @@
         <v>0.93575029522793296</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>1993</v>
@@ -1416,9 +1416,9 @@
         <v>0.93458295406505398</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>1994</v>
@@ -1433,9 +1433,9 @@
         <v>0.93392700598696698</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>1995</v>
@@ -1450,9 +1450,9 @@
         <v>0.93250311269473896</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>1996</v>
@@ -1467,9 +1467,9 @@
         <v>0.93135413195000305</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>1997</v>
@@ -1484,9 +1484,9 @@
         <v>0.92957411316181604</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>1998</v>
@@ -1501,9 +1501,9 @@
         <v>0.92882847540876601</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>1999</v>
@@ -1518,9 +1518,9 @@
         <v>0.92770931742965501</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>2000</v>
@@ -1535,9 +1535,9 @@
         <v>0.92653930640349802</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>2001</v>
@@ -1552,9 +1552,9 @@
         <v>0.92563398638986605</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>2002</v>
@@ -1569,9 +1569,9 @@
         <v>0.92469582126258898</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>2003</v>
@@ -1586,9 +1586,9 @@
         <v>0.92327715684661804</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>2004</v>
@@ -1603,9 +1603,9 @@
         <v>0.92253784406314598</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>2005</v>
@@ -1620,9 +1620,9 @@
         <v>0.92128442995775595</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>2006</v>
@@ -1637,9 +1637,9 @@
         <v>0.92025582354731394</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>2007</v>
@@ -1654,9 +1654,9 @@
         <v>0.91923272254150201</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>2008</v>
@@ -1671,9 +1671,9 @@
         <v>0.91873928165881902</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>2009</v>
@@ -1688,9 +1688,9 @@
         <v>0.91757067687127503</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>2010</v>
@@ -1705,9 +1705,9 @@
         <v>0.91663775788995105</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>2011</v>
@@ -1722,9 +1722,9 @@
         <v>0.91597253245308596</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>2012</v>
@@ -1739,9 +1739,9 @@
         <v>0.91495516441003899</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>2013</v>
@@ -1756,9 +1756,9 @@
         <v>0.91388759849164702</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>2014</v>
@@ -1773,9 +1773,9 @@
         <v>0.91276150642103904</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>2015</v>
@@ -1790,9 +1790,9 @@
         <v>0.91185596495792498</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>2016</v>
@@ -1807,9 +1807,9 @@
         <v>0.91041954909969702</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>2017</v>
@@ -1824,9 +1824,9 @@
         <v>0.909390069966589</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>2018</v>
@@ -1841,9 +1841,9 @@
         <v>0.90807428620084496</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>2019</v>
@@ -1858,9 +1858,9 @@
         <v>0.90690516991126002</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>2020</v>
@@ -1875,9 +1875,9 @@
         <v>0.90485699068380099</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>2021</v>
@@ -1892,9 +1892,9 @@
         <v>0.90013861525694105</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>2022</v>
@@ -1909,9 +1909,9 @@
         <v>0.89610907205387103</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54">
         <v>2023</v>
@@ -1926,9 +1926,9 @@
         <v>0.89306992780011896</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>2024</v>
@@ -1943,9 +1943,9 @@
         <v>0.89025129671877701</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56">
         <v>2025</v>
@@ -1972,11 +1972,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1985,15 +1985,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9251B87A2689245AA9FD86C69F20C58" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31801f9a6344885e2ad9c0aa60ac3e97">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de6781d5-cbdf-44cc-b8b1-919d4413b058" xmlns:ns3="d08e37f2-beba-4595-a3e8-aa91f032b3fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="06462e79f34d157ecd2cf5f2e1df8c8f" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2265,6 +2256,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2279,14 +2279,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46C6F7B-4D94-434F-B4A8-F4B534EF89A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F79CD9FB-9076-417F-A692-736A5658190B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2306,6 +2298,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46C6F7B-4D94-434F-B4A8-F4B534EF89A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E37123-21DE-4118-A7E3-15EA5DE94433}">
   <ds:schemaRefs>
